--- a/lib/APGCMS/APGCMS/lib/lib_urine_CalibrationCurve_SuccinicAcidD4_20160624.xlsx
+++ b/lib/APGCMS/APGCMS/lib/lib_urine_CalibrationCurve_SuccinicAcidD4_20160624.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="27920" yWindow="4140" windowWidth="31060" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="37940" yWindow="340" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="CalibrationCurve_Apr1116_combin" sheetId="1" r:id="rId1"/>
+    <sheet name="CalibrationCurve" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -105,15 +105,9 @@
     <t>HMDB00139</t>
   </si>
   <si>
-    <t>glyceric</t>
-  </si>
-  <si>
     <t>HMDB00176</t>
   </si>
   <si>
-    <t>maleic</t>
-  </si>
-  <si>
     <t>HMDB00190</t>
   </si>
   <si>
@@ -123,15 +117,9 @@
     <t>HMDB00193</t>
   </si>
   <si>
-    <t>isocitric</t>
-  </si>
-  <si>
     <t>HMDB00197</t>
   </si>
   <si>
-    <t xml:space="preserve">1H-Indole-3-acetic acid </t>
-  </si>
-  <si>
     <t>HMDB00202</t>
   </si>
   <si>
@@ -147,15 +135,9 @@
     <t>HMDB00223</t>
   </si>
   <si>
-    <t>oxaloacetic</t>
-  </si>
-  <si>
     <t>HMDB00226</t>
   </si>
   <si>
-    <t>orotic</t>
-  </si>
-  <si>
     <t>HMDB00232</t>
   </si>
   <si>
@@ -171,9 +153,6 @@
     <t>HMDB00267</t>
   </si>
   <si>
-    <t xml:space="preserve">Pyroglutamic acid </t>
-  </si>
-  <si>
     <t>HMDB00291</t>
   </si>
   <si>
@@ -183,9 +162,6 @@
     <t>HMDB00300</t>
   </si>
   <si>
-    <t>uracil</t>
-  </si>
-  <si>
     <t>HMDB00317</t>
   </si>
   <si>
@@ -231,9 +207,6 @@
     <t>HMDB00379</t>
   </si>
   <si>
-    <t>methylcitric</t>
-  </si>
-  <si>
     <t>HMDB00396</t>
   </si>
   <si>
@@ -279,9 +252,6 @@
     <t>HMDb00484</t>
   </si>
   <si>
-    <t xml:space="preserve">vanillic </t>
-  </si>
-  <si>
     <t>HMDB00491</t>
   </si>
   <si>
@@ -291,15 +261,9 @@
     <t>HMDB00500</t>
   </si>
   <si>
-    <t xml:space="preserve">p-Hydroxybenzoic acid </t>
-  </si>
-  <si>
     <t>HMDB00522</t>
   </si>
   <si>
-    <t>3-methylglutaconic acid (e)</t>
-  </si>
-  <si>
     <t>HMDB00525</t>
   </si>
   <si>
@@ -327,36 +291,18 @@
     <t>HMDB00623</t>
   </si>
   <si>
-    <t>dodecanedioic</t>
-  </si>
-  <si>
     <t>HMDB00634</t>
   </si>
   <si>
-    <t>methylmaleic</t>
-  </si>
-  <si>
     <t>HMDB00635</t>
   </si>
   <si>
-    <t xml:space="preserve">succinylacetone </t>
-  </si>
-  <si>
-    <t>Glutaric acid</t>
-  </si>
-  <si>
     <t>HMDB00669</t>
   </si>
   <si>
-    <t xml:space="preserve">o-Hydroxyphenylacetic acid </t>
-  </si>
-  <si>
     <t>HMDB00678</t>
   </si>
   <si>
-    <t>isovalerylglycine</t>
-  </si>
-  <si>
     <t>HMDB00691</t>
   </si>
   <si>
@@ -378,9 +324,6 @@
     <t>HMDB00714</t>
   </si>
   <si>
-    <t xml:space="preserve">Hippuric acid </t>
-  </si>
-  <si>
     <t>HMDB00715</t>
   </si>
   <si>
@@ -408,9 +351,6 @@
     <t>HMDB00763</t>
   </si>
   <si>
-    <t xml:space="preserve">5-Hydroxyindoleacetic acid </t>
-  </si>
-  <si>
     <t>HMDB00764</t>
   </si>
   <si>
@@ -444,9 +384,6 @@
     <t>HMDB00808</t>
   </si>
   <si>
-    <t>butyrylglycine</t>
-  </si>
-  <si>
     <t>HMDB00812</t>
   </si>
   <si>
@@ -462,15 +399,9 @@
     <t>HMDB00857</t>
   </si>
   <si>
-    <t xml:space="preserve">Pimelic acid </t>
-  </si>
-  <si>
     <t>HMDB00860</t>
   </si>
   <si>
-    <t>phenylpropionylglycine</t>
-  </si>
-  <si>
     <t>HMDB00866</t>
   </si>
   <si>
@@ -510,160 +441,229 @@
     <t>HMDB00956</t>
   </si>
   <si>
-    <t>tartaric</t>
-  </si>
-  <si>
     <t>HMDB00958</t>
   </si>
   <si>
+    <t>HMDB00959</t>
+  </si>
+  <si>
+    <t>HMDB01123</t>
+  </si>
+  <si>
+    <t>2-amino-benzoic acid</t>
+  </si>
+  <si>
+    <t>HMDB01713</t>
+  </si>
+  <si>
+    <t>m-Coumaric acid</t>
+  </si>
+  <si>
+    <t>HMDB01844</t>
+  </si>
+  <si>
+    <t>2-Methylsuccinic acid</t>
+  </si>
+  <si>
+    <t>HMDB01865</t>
+  </si>
+  <si>
+    <t>2-oxovaleric</t>
+  </si>
+  <si>
+    <t>HMDB01870</t>
+  </si>
+  <si>
+    <t>Benzoic acid</t>
+  </si>
+  <si>
+    <t>HMDB01877</t>
+  </si>
+  <si>
+    <t>HMDB01889</t>
+  </si>
+  <si>
+    <t>HMDB01895</t>
+  </si>
+  <si>
+    <t>2-Hydroxybenzoic acid (salicylic acid)</t>
+  </si>
+  <si>
+    <t>HMDB01987</t>
+  </si>
+  <si>
+    <t>2-Hydroxy-2-methylbutyric acid</t>
+  </si>
+  <si>
+    <t>HMDB02285</t>
+  </si>
+  <si>
+    <t>2-Indolecarboxylic acid</t>
+  </si>
+  <si>
+    <t>HMDB02329</t>
+  </si>
+  <si>
+    <t>HMDB02432</t>
+  </si>
+  <si>
+    <t>Sumiki's acid</t>
+  </si>
+  <si>
+    <t>HMDB02441</t>
+  </si>
+  <si>
+    <t>3,3-dimethylglutaric</t>
+  </si>
+  <si>
+    <t>HMDB02453</t>
+  </si>
+  <si>
+    <t>4-Deoxythreonate</t>
+  </si>
+  <si>
+    <t>HMDB02643</t>
+  </si>
+  <si>
+    <t>HPHPA</t>
+  </si>
+  <si>
+    <t>HMDB03320</t>
+  </si>
+  <si>
+    <t>indole-3-carboxylic</t>
+  </si>
+  <si>
+    <t>HMDB04812</t>
+  </si>
+  <si>
+    <t>2,5-furandicarboxylic</t>
+  </si>
+  <si>
+    <t>HMDB06024</t>
+  </si>
+  <si>
+    <t>Mevalonolactone</t>
+  </si>
+  <si>
+    <t>HMDB06116</t>
+  </si>
+  <si>
+    <t>m-Hydroxyhippuric acid</t>
+  </si>
+  <si>
+    <t>HMDB13678</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>HMDB_ISTD1</t>
+  </si>
+  <si>
+    <t>ISTD</t>
+  </si>
+  <si>
+    <t>Succinate-D4 (ISTD)</t>
+  </si>
+  <si>
+    <t>HMDB00115</t>
+  </si>
+  <si>
+    <t>Acetoacetic</t>
+  </si>
+  <si>
+    <t>Pyroglutamic acid</t>
+  </si>
+  <si>
+    <t>o-Hydroxyphenylacetic acid</t>
+  </si>
+  <si>
+    <t>Pimelic acid</t>
+  </si>
+  <si>
+    <t>p-Hydroxybenzoic acid</t>
+  </si>
+  <si>
+    <t>Hippuric acid</t>
+  </si>
+  <si>
+    <t>1H-Indole-3-acetic acid</t>
+  </si>
+  <si>
+    <t>5-Hydroxyindoleacetic acid</t>
+  </si>
+  <si>
+    <t>3-methylglutaconic acid</t>
+  </si>
+  <si>
+    <t>4-hydroxyhippuric acid</t>
+  </si>
+  <si>
+    <t>Glyceric</t>
+  </si>
+  <si>
+    <t>Uracil</t>
+  </si>
+  <si>
+    <t>Maleic</t>
+  </si>
+  <si>
+    <t>Methylmaleic</t>
+  </si>
+  <si>
+    <t>Oxalic</t>
+  </si>
+  <si>
+    <t>Valproic</t>
+  </si>
+  <si>
+    <t>Butyrylglycine</t>
+  </si>
+  <si>
+    <t>Oxaloacetic</t>
+  </si>
+  <si>
+    <t>Isovalerylglycine</t>
+  </si>
+  <si>
+    <t>Tiglylglycine</t>
+  </si>
+  <si>
+    <t>Succinylacetone</t>
+  </si>
+  <si>
+    <t>Tartaric</t>
+  </si>
+  <si>
+    <t>Orotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanillic </t>
+  </si>
+  <si>
+    <t>Isocitric</t>
+  </si>
+  <si>
+    <t>Methylcitric</t>
+  </si>
+  <si>
+    <t>Theophylline</t>
+  </si>
+  <si>
+    <t>Phenylpropionylglycine</t>
+  </si>
+  <si>
+    <t>Dodecanedioic</t>
+  </si>
+  <si>
+    <t>Glycolic acid</t>
+  </si>
+  <si>
     <t>trans-Aconitic acid</t>
-  </si>
-  <si>
-    <t>HMDB00959</t>
-  </si>
-  <si>
-    <t>tiglylglycine</t>
-  </si>
-  <si>
-    <t>HMDB01123</t>
-  </si>
-  <si>
-    <t>2-amino-benzoic acid</t>
-  </si>
-  <si>
-    <t>HMDB01713</t>
-  </si>
-  <si>
-    <t>m-Coumaric acid</t>
-  </si>
-  <si>
-    <t>HMDB01844</t>
-  </si>
-  <si>
-    <t>2-Methylsuccinic acid</t>
-  </si>
-  <si>
-    <t>HMDB01865</t>
-  </si>
-  <si>
-    <t>2-oxovaleric</t>
-  </si>
-  <si>
-    <t>HMDB01870</t>
-  </si>
-  <si>
-    <t>Benzoic acid</t>
-  </si>
-  <si>
-    <t>HMDB01877</t>
-  </si>
-  <si>
-    <t>valproic</t>
-  </si>
-  <si>
-    <t>HMDB01889</t>
-  </si>
-  <si>
-    <t>theophylline</t>
-  </si>
-  <si>
-    <t>HMDB01895</t>
-  </si>
-  <si>
-    <t>2-Hydroxybenzoic acid (salicylic acid)</t>
-  </si>
-  <si>
-    <t>HMDB01987</t>
-  </si>
-  <si>
-    <t>2-Hydroxy-2-methylbutyric acid</t>
-  </si>
-  <si>
-    <t>HMDB02285</t>
-  </si>
-  <si>
-    <t>2-Indolecarboxylic acid</t>
-  </si>
-  <si>
-    <t>HMDB02329</t>
-  </si>
-  <si>
-    <t>oxalic</t>
-  </si>
-  <si>
-    <t>HMDB02432</t>
-  </si>
-  <si>
-    <t>Sumiki's acid</t>
-  </si>
-  <si>
-    <t>HMDB02441</t>
-  </si>
-  <si>
-    <t>3,3-dimethylglutaric</t>
-  </si>
-  <si>
-    <t>HMDB02453</t>
-  </si>
-  <si>
-    <t>4-Deoxythreonate</t>
-  </si>
-  <si>
-    <t>HMDB02643</t>
-  </si>
-  <si>
-    <t>HPHPA</t>
-  </si>
-  <si>
-    <t>HMDB03320</t>
-  </si>
-  <si>
-    <t>indole-3-carboxylic</t>
-  </si>
-  <si>
-    <t>HMDB04812</t>
-  </si>
-  <si>
-    <t>2,5-furandicarboxylic</t>
-  </si>
-  <si>
-    <t>HMDB06024</t>
-  </si>
-  <si>
-    <t>Mevalonolactone</t>
-  </si>
-  <si>
-    <t>HMDB06116</t>
-  </si>
-  <si>
-    <t>m-Hydroxyhippuric acid</t>
-  </si>
-  <si>
-    <t>HMDB13678</t>
-  </si>
-  <si>
-    <t>4-hydroxyhippuric Acid</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aacetoacetic </t>
-  </si>
-  <si>
-    <t>HMDB_ISTD1</t>
-  </si>
-  <si>
-    <t>ISTD</t>
-  </si>
-  <si>
-    <t>Succinate-D4 (ISTD)</t>
-  </si>
-  <si>
-    <t>HMDB00115</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -731,11 +747,27 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1067,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1089,10 +1121,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1147,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>-0.53626341</v>
@@ -1179,10 +1211,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="D4">
         <v>-0.2243511</v>
@@ -1310,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1339,10 +1371,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="D9">
         <v>-2.1899825000000001E-2</v>
@@ -1371,10 +1403,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D10">
         <v>-1.1401060000000001E-3</v>
@@ -1403,10 +1435,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D11">
         <v>2.8299985999999999E-2</v>
@@ -1435,10 +1467,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>-5.9558930000000003E-2</v>
@@ -1467,10 +1499,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>-7.121339E-3</v>
@@ -1499,10 +1531,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1531,10 +1563,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1563,10 +1595,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>-7.2043430000000006E-2</v>
@@ -1595,10 +1627,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D17">
         <v>-3.3457844E-2</v>
@@ -1627,10 +1659,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>-9.8346570000000001E-3</v>
@@ -1659,10 +1691,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19">
         <v>-0.29226809199999998</v>
@@ -1691,10 +1723,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>-0.107558497</v>
@@ -1723,10 +1755,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D21">
         <v>-1.4545649000000001E-2</v>
@@ -1755,10 +1787,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>1.7249410999999999E-2</v>
@@ -1787,10 +1819,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>-0.83749064600000001</v>
@@ -1819,10 +1851,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="D24">
         <v>-9.876045E-2</v>
@@ -1851,10 +1883,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D25">
         <v>-0.23850617399999999</v>
@@ -1883,10 +1915,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D26">
         <v>-1.3607233999999999E-2</v>
@@ -1918,7 +1950,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="D27">
         <v>-2.8096288000000001E-2</v>
@@ -1947,10 +1979,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="D28">
         <v>-6.9543431000000003E-2</v>
@@ -1979,10 +2011,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="D29">
         <v>1.13284929</v>
@@ -2043,10 +2075,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="D31">
         <v>-0.10407134799999999</v>
@@ -2075,10 +2107,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>8.1345448000000001E-2</v>
@@ -2107,10 +2139,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D33">
         <v>-8.4268256E-2</v>
@@ -2139,10 +2171,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
@@ -2171,10 +2203,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="D35">
         <v>-2.2485763999999998E-2</v>
@@ -2203,10 +2235,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="D36">
         <v>-0.376272204</v>
@@ -2235,10 +2267,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D37">
         <v>-4.6076250999999999E-2</v>
@@ -2267,10 +2299,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D38">
         <v>-0.25377470000000002</v>
@@ -2299,10 +2331,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="D39">
         <v>-0.89809295700000003</v>
@@ -2331,10 +2363,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="D40">
         <v>-0.21498626600000001</v>
@@ -2363,10 +2395,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="D41">
         <v>-9.7656587000000003E-2</v>
@@ -2395,10 +2427,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="D42">
         <v>-7.1439727999999994E-2</v>
@@ -2427,10 +2459,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D43">
         <v>-0.190529849</v>
@@ -2459,10 +2491,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
@@ -2491,10 +2523,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
@@ -2523,10 +2555,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D46">
         <v>-1.9112580000000001E-3</v>
@@ -2555,10 +2587,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D47">
         <v>-0.113552773</v>
@@ -2587,10 +2619,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="D48">
         <v>-0.43685889900000002</v>
@@ -2619,10 +2651,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D49">
         <v>-0.77859254700000002</v>
@@ -2651,10 +2683,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D50">
         <v>-0.229871404</v>
@@ -2683,10 +2715,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="D51">
         <v>-4.0512916000000003E-2</v>
@@ -2715,10 +2747,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="D52">
         <v>-0.98714020199999997</v>
@@ -2747,10 +2779,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="D53">
         <v>-0.30727785000000002</v>
@@ -2779,10 +2811,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="D54" s="1">
         <v>2.4199999999999999E-5</v>
@@ -2811,10 +2843,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D55">
         <v>-0.29715070799999999</v>
@@ -2843,10 +2875,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D56">
         <v>-1.2085689369999999</v>
@@ -2875,10 +2907,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="D57">
         <v>-0.507147758</v>
@@ -2907,10 +2939,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C58" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D58">
         <v>-0.246577193</v>
@@ -2939,10 +2971,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D59">
         <v>-0.41161223800000002</v>
@@ -2971,10 +3003,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D60">
         <v>-0.67176609499999995</v>
@@ -3003,10 +3035,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="D61">
         <v>-0.51654645200000004</v>
@@ -3035,10 +3067,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="D62">
         <v>5.4687823000000003E-2</v>
@@ -3099,10 +3131,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="D64">
         <v>-0.39306929299999999</v>
@@ -3131,10 +3163,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D65">
         <v>-0.20094055699999999</v>
@@ -3163,10 +3195,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -3195,10 +3227,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -3227,10 +3259,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D68">
         <v>-0.66688706499999995</v>
@@ -3259,10 +3291,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D69">
         <v>-0.16696270799999999</v>
@@ -3291,10 +3323,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>2.5848075000000002E-2</v>
@@ -3323,10 +3355,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D71">
         <v>-0.44217026500000001</v>
@@ -3355,10 +3387,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -3387,10 +3419,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D73">
         <v>-1.2567823140000001</v>
@@ -3419,10 +3451,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="D74">
         <v>-0.21384077900000001</v>
@@ -3451,10 +3483,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C75" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="D75">
         <v>0.11405911000000001</v>
@@ -3515,10 +3547,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D77">
         <v>-0.37568768600000002</v>
@@ -3547,10 +3579,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C78" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="D78">
         <v>-0.28120537299999998</v>
@@ -3579,10 +3611,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="D79">
         <v>-2.785573393</v>
@@ -3643,10 +3675,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3675,10 +3707,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="D82">
         <v>-6.6195434999999997E-2</v>
@@ -3707,10 +3739,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="D83">
         <v>-0.181818751</v>
@@ -3739,10 +3771,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="D84">
         <v>-9.0498292999999994E-2</v>
@@ -3771,10 +3803,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D85">
         <v>-1.9152562900000001</v>
@@ -3803,10 +3835,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C86" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D86">
         <v>-0.24364218100000001</v>
@@ -3835,10 +3867,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D87">
         <v>-0.30680098099999997</v>
@@ -3867,10 +3899,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D88">
         <v>4.7609683680000003</v>
@@ -3899,10 +3931,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="D89">
         <v>5.5677312999999999E-2</v>
@@ -3931,10 +3963,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="D90">
         <v>-5.3722737999999999E-2</v>
@@ -3963,10 +3995,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -3995,10 +4027,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="D92">
         <v>-0.23033288599999999</v>
@@ -4027,10 +4059,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="D93">
         <v>0.405301101</v>
@@ -4059,10 +4091,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D94">
         <v>1.374300568</v>
@@ -4091,10 +4123,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D95">
         <v>-0.149252832</v>
@@ -4123,10 +4155,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="D96">
         <v>-1.1381745569999999</v>
@@ -4155,10 +4187,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D97">
         <v>-0.13066527</v>
@@ -4187,10 +4219,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D98">
         <v>-4.4516955139999999</v>
@@ -4219,10 +4251,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="D99">
         <v>-1.3383108340000001</v>
@@ -4251,10 +4283,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="D100">
         <v>6.7957860999999994E-2</v>
@@ -4283,10 +4315,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D101">
         <v>-0.68974149600000001</v>
@@ -4315,10 +4347,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
@@ -4333,7 +4365,7 @@
         <v>19</v>
       </c>
       <c r="H102" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
